--- a/temp.xlsx
+++ b/temp.xlsx
@@ -548,37 +548,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>example</t>
+          <t>Auk 009 28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1500</v>
+        <v>1789</v>
       </c>
       <c r="D2" t="n">
-        <v>1550</v>
+        <v>3470.81</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="F2" t="n">
-        <v>1600</v>
+        <v>3809.19</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -590,25 +590,25 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>18.07</v>
       </c>
       <c r="O2" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>89000</v>
+        <v>59143.27</v>
       </c>
       <c r="R2" t="n">
-        <v>40.5</v>
+        <v>36.99</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Auk 009 28</t>
+          <t>Hugin 009 18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -557,52 +557,52 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1789</v>
+        <v>3560</v>
       </c>
       <c r="D2" t="n">
-        <v>3470.81</v>
+        <v>4124.03</v>
       </c>
       <c r="E2" t="n">
-        <v>237</v>
+        <v>215.5</v>
       </c>
       <c r="F2" t="n">
-        <v>3809.19</v>
+        <v>302.11</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.000529892</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.00035261</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.87775072</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.08776732299999999</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.299641147</v>
       </c>
       <c r="N2" t="n">
-        <v>18.07</v>
+        <v>37.21</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>57.28906958</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>113.6029704</v>
       </c>
       <c r="Q2" t="n">
-        <v>59143.27</v>
+        <v>66538.02</v>
       </c>
       <c r="R2" t="n">
-        <v>36.99</v>
+        <v>77.77</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -548,67 +548,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hugin 009 18</t>
+          <t>example</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>Open</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3560</v>
+        <v>1500</v>
       </c>
       <c r="D2" t="n">
-        <v>4124.03</v>
+        <v>1550</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5</v>
+        <v>150</v>
       </c>
       <c r="F2" t="n">
-        <v>302.11</v>
+        <v>1600</v>
       </c>
       <c r="G2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
         <v>0.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.000529892</v>
+        <v>0.0001</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00035261</v>
+        <v>0.0003</v>
       </c>
       <c r="K2" t="n">
-        <v>0.87775072</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08776732299999999</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.299641147</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>37.21</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>57.28906958</v>
+        <v>15.5</v>
       </c>
       <c r="P2" t="n">
-        <v>113.6029704</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="n">
-        <v>66538.02</v>
+        <v>89000</v>
       </c>
       <c r="R2" t="n">
-        <v>77.77</v>
+        <v>40.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
